--- a/artfynd/A 57296-2025 artfynd.xlsx
+++ b/artfynd/A 57296-2025 artfynd.xlsx
@@ -874,10 +874,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131117304</v>
+        <v>131116436</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>621008</v>
+        <v>620927</v>
       </c>
       <c r="R4" t="n">
-        <v>6876450</v>
+        <v>6876471</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131116436</v>
+        <v>131117304</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>620927</v>
+        <v>621008</v>
       </c>
       <c r="R5" t="n">
-        <v>6876471</v>
+        <v>6876450</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131117242</v>
+        <v>131117122</v>
       </c>
       <c r="B6" t="n">
         <v>80348</v>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>621021</v>
+        <v>621039</v>
       </c>
       <c r="R6" t="n">
-        <v>6876450</v>
+        <v>6876437</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131117122</v>
+        <v>131117242</v>
       </c>
       <c r="B7" t="n">
         <v>80348</v>
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>621039</v>
+        <v>621021</v>
       </c>
       <c r="R7" t="n">
-        <v>6876437</v>
+        <v>6876450</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
